--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273386.1055297731</v>
+        <v>270947.6324300269</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>205.6364455689701</v>
+        <v>190.1817854699651</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.6554894253559</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>59.35991151980204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.2668480797626705</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>343.0908049403961</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>255.5068590478626</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>118.6412100271817</v>
+        <v>117.0859349823495</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329279</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.70969583585387</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>19.64254417412995</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>164.459676210938</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>55.52079624059969</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272928</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>63.8415564125923</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>106.3434154283422</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>61.97958965902078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>80.07147829117811</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>184.1670747424462</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.66234525555497</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>126.9263824507407</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.338003964587</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1119.806974249411</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1119.806974249411</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265601</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.077176004521</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2230.937844028709</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.0144869816389</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>370.0144869816389</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>370.0144869816389</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251691</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.0144869816389</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.10523981398</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.839541207229</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E5" t="n">
-        <v>866.051288608985</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>455.0653838193775</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2276.946973511677</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>1903.481215250597</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>1513.341883274785</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.750449904589</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C7" t="n">
-        <v>874.8142669766819</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D7" t="n">
-        <v>724.6976275643461</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E7" t="n">
-        <v>576.784533981953</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F7" t="n">
-        <v>429.8945864840426</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.608663915319</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1446.191493878358</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X7" t="n">
-        <v>1446.191493878358</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y7" t="n">
-        <v>1225.398914734828</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3271.353603593157</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3065.37585597738</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3065.37585597738</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6989751875261</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368017</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310562</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310562</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875261</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,16 +5124,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216018</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216018</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.4712640439268</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>532.5350811160199</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>158.303083666752</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.912308017697</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.1197288741665</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.574735228845</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>768.5380889459542</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>950.1865537761939</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>651.5752442188632</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>503.6621506364701</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>77.941525389422</v>
+        <v>175.0911063010425</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>10.85445046952199</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.5336875992846</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>17.42427990597324</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>105.2672314396071</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>99.76050189075919</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.003342051669</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>41.54258064659098</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>40.32043864788712</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983238.5620485347</v>
+        <v>983238.562048535</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019035</v>
       </c>
       <c r="C2" t="n">
+        <v>369468.7964389277</v>
+      </c>
+      <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
-      <c r="D2" t="n">
-        <v>369468.7964389277</v>
-      </c>
       <c r="E2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605027</v>
@@ -26329,31 +26329,31 @@
         <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605025</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="N2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="O2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="P2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.9591705288</v>
+        <v>50238.95917052904</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26439,25 +26439,25 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1150999.658957612</v>
+        <v>-1151186.05234615</v>
       </c>
       <c r="C6" t="n">
         <v>168741.0129943404</v>
@@ -26528,40 +26528,40 @@
         <v>168741.0129943402</v>
       </c>
       <c r="E6" t="n">
-        <v>-76925.82988260247</v>
+        <v>-76960.56780803807</v>
       </c>
       <c r="F6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.8939993171</v>
       </c>
       <c r="G6" t="n">
-        <v>248486.631924753</v>
+        <v>248451.893999317</v>
       </c>
       <c r="H6" t="n">
-        <v>248486.6319247527</v>
+        <v>248451.893999317</v>
       </c>
       <c r="I6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.8939993172</v>
       </c>
       <c r="J6" t="n">
-        <v>30955.42952747513</v>
+        <v>30920.6916020396</v>
       </c>
       <c r="K6" t="n">
-        <v>248486.6319247529</v>
+        <v>248451.893999317</v>
       </c>
       <c r="L6" t="n">
-        <v>248486.6319247529</v>
+        <v>248451.8939993172</v>
       </c>
       <c r="M6" t="n">
-        <v>163431.6039892411</v>
+        <v>163396.8660638054</v>
       </c>
       <c r="N6" t="n">
-        <v>248486.631924753</v>
+        <v>248451.8939993173</v>
       </c>
       <c r="O6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.8939993173</v>
       </c>
       <c r="P6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.8939993173</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,10 +26796,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.69492081261544</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>86.27488064690584</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>87.07405112676713</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>225.4428073092745</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.83092071305731</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>93.73410966955043</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.38459823184651</v>
+        <v>48.93987327667877</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393338</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>55.47806595232193</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>147.6042769244979</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>122.063322125653</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28299,13 +28299,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575231</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
